--- a/xlsx/露营_intext.xlsx
+++ b/xlsx/露营_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B3%E7%AF%B7</t>
   </si>
   <si>
-    <t>帳篷</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_露营</t>
+    <t>帐篷</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_露营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%96%E8%BB%8A</t>
   </si>
   <si>
-    <t>拖車</t>
+    <t>拖车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%8C%E5%8C%85%E5%AE%A2</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E7%81%AB%E6%A9%9F</t>
   </si>
   <si>
-    <t>打火機</t>
+    <t>打火机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%9F%B4</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%A4%A7%E9%8F%A1</t>
   </si>
   <si>
-    <t>放大鏡</t>
+    <t>放大镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%A3%B6</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E9%9B%BB%E7%AD%92</t>
   </si>
   <si>
-    <t>手電筒</t>
+    <t>手电筒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E7%9B%B8%E6%9C%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%97%E5%B8%83</t>
   </si>
   <si>
-    <t>紗布</t>
+    <t>纱布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B6%E5%B8%A6</t>
@@ -179,25 +179,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%83%E5%B8%B6</t>
   </si>
   <si>
-    <t>繃帶</t>
+    <t>绷带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E7%87%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>露營車</t>
+    <t>露营车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E7%87%9F</t>
   </si>
   <si>
-    <t>宿營</t>
+    <t>宿营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%87%9F</t>
   </si>
   <si>
-    <t>日營</t>
+    <t>日营</t>
   </si>
 </sst>
 </file>
